--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.136409</v>
+        <v>2.463682333333333</v>
       </c>
       <c r="H2">
-        <v>12.409227</v>
+        <v>7.391047</v>
       </c>
       <c r="I2">
-        <v>0.1644213124918745</v>
+        <v>0.1471144317682987</v>
       </c>
       <c r="J2">
-        <v>0.1829131064254891</v>
+        <v>0.153994306893138</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N2">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06909457593599999</v>
+        <v>0.2291856915132222</v>
       </c>
       <c r="R2">
-        <v>0.6218511834239999</v>
+        <v>2.062671223619</v>
       </c>
       <c r="S2">
-        <v>0.1644213124918745</v>
+        <v>0.1471144317682987</v>
       </c>
       <c r="T2">
-        <v>0.1829131064254891</v>
+        <v>0.153994306893138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,28 +602,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.054586</v>
+        <v>9.054585999999999</v>
       </c>
       <c r="H3">
         <v>27.163758</v>
       </c>
       <c r="I3">
-        <v>0.3599177243330028</v>
+        <v>0.5406785835432485</v>
       </c>
       <c r="J3">
-        <v>0.4003962017916372</v>
+        <v>0.5659636700758273</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N3">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.151247804544</v>
+        <v>0.8423088990406666</v>
       </c>
       <c r="R3">
-        <v>1.361230240896</v>
+        <v>7.580780091366</v>
       </c>
       <c r="S3">
-        <v>0.3599177243330028</v>
+        <v>0.5406785835432485</v>
       </c>
       <c r="T3">
-        <v>0.4003962017916372</v>
+        <v>0.5659636700758273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,37 +655,37 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.057457333333334</v>
+        <v>1.771675</v>
       </c>
       <c r="H4">
-        <v>9.172372000000001</v>
+        <v>5.315025</v>
       </c>
       <c r="I4">
-        <v>0.121533230305459</v>
+        <v>0.1057924381632672</v>
       </c>
       <c r="J4">
-        <v>0.1352015766824297</v>
+        <v>0.1107398709539665</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N4">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.05107176729600001</v>
+        <v>0.1648112479916667</v>
       </c>
       <c r="R4">
-        <v>0.459645905664</v>
+        <v>1.483301231925</v>
       </c>
       <c r="S4">
-        <v>0.121533230305459</v>
+        <v>0.1057924381632672</v>
       </c>
       <c r="T4">
-        <v>0.1352015766824297</v>
+        <v>0.1107398709539665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.629935</v>
+        <v>2.244536</v>
       </c>
       <c r="H5">
-        <v>15.25987</v>
+        <v>4.489072</v>
       </c>
       <c r="I5">
-        <v>0.3032881726462954</v>
+        <v>0.1340284961887633</v>
       </c>
       <c r="J5">
-        <v>0.2249318370394166</v>
+        <v>0.09353093428216502</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N5">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.12745043424</v>
+        <v>0.2087994577573334</v>
       </c>
       <c r="R5">
-        <v>0.7647026054399999</v>
+        <v>1.252796746544</v>
       </c>
       <c r="S5">
-        <v>0.3032881726462954</v>
+        <v>0.1340284961887633</v>
       </c>
       <c r="T5">
-        <v>0.2249318370394166</v>
+        <v>0.09353093428216502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,28 +788,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.27899</v>
+        <v>1.212228</v>
       </c>
       <c r="H6">
-        <v>3.83697</v>
+        <v>3.636684</v>
       </c>
       <c r="I6">
-        <v>0.05083956022336828</v>
+        <v>0.07238605033642234</v>
       </c>
       <c r="J6">
-        <v>0.05655727806102741</v>
+        <v>0.07577121779490305</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N6">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.02136424896</v>
+        <v>0.112768317852</v>
       </c>
       <c r="R6">
-        <v>0.19227824064</v>
+        <v>1.014914860668</v>
       </c>
       <c r="S6">
-        <v>0.05083956022336828</v>
+        <v>0.07238605033642234</v>
       </c>
       <c r="T6">
-        <v>0.05655727806102741</v>
+        <v>0.07577121779490305</v>
       </c>
     </row>
   </sheetData>
